--- a/data_overview.xlsx
+++ b/data_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coen/Documents/Papers/Brain_age_variability_respiration/Codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725E5671-ED49-6F45-A072-8EA0D2FE13DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FD07B5-66D6-E842-A163-30718133D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33540" windowHeight="19100" xr2:uid="{F56E07E0-4ECA-7542-813D-DE4E0557A526}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>Study_ID</t>
   </si>
   <si>
-    <t>Unsure stop date</t>
-  </si>
-  <si>
     <t>PMA_w</t>
   </si>
   <si>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>Caf_comments</t>
+  </si>
+  <si>
+    <t>medical notes unavailable</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD362CF3-FDA2-334E-A01B-F2350EF717F3}">
   <dimension ref="A1:AG152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M108" sqref="M108"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -682,7 +682,7 @@
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -690,40 +690,40 @@
         <v>60</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:13">
